--- a/src/main/resources/output/product_key_cost.xlsx
+++ b/src/main/resources/output/product_key_cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\Documents\Workspace\playground\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YONGXIANG_PC\Desktop\Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DB5EB-468A-4BFB-965E-148CEF8F3A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$70</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -222,9 +233,6 @@
     <t>M4287D-LFBGA-292-99</t>
   </si>
   <si>
-    <t>M4287D-LFBGA-292-110,</t>
-  </si>
-  <si>
     <t>M4283Z-LFBGA-292-88</t>
   </si>
   <si>
@@ -244,12 +252,15 @@
   </si>
   <si>
     <t>Missing cell. Average of all existing values</t>
+  </si>
+  <si>
+    <t>M4287D-LFBGA-292-110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,6 +411,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -435,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,12 +655,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -630,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>269.71249999999998</v>
+        <v>0.26971249999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>219.91</v>
+        <v>0.21990999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>425.47</v>
+        <v>0.42547000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>203.69</v>
+        <v>0.20369000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -685,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>181.53</v>
+        <v>0.18153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>198.62</v>
+        <v>0.19861999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>186.02</v>
+        <v>0.18602000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>171.06</v>
+        <v>0.17105999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -729,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>172.03</v>
+        <v>0.17202999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -740,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>219.64</v>
+        <v>0.21963999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -751,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>149.30000000000001</v>
+        <v>0.14930000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>151.16999999999999</v>
+        <v>0.15117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>144</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -784,16 +827,16 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>121.84</v>
+        <v>0.12184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16">
-        <v>116.6</v>
+        <v>0.1166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17">
-        <v>116.6</v>
+        <v>0.1166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>119.29</v>
+        <v>0.11929000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>113.97</v>
+        <v>0.11397</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>161.08000000000001</v>
+        <v>0.16108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,7 +891,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>175.37</v>
+        <v>0.17537</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>236.81</v>
+        <v>0.23680999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -870,7 +913,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>356.05</v>
+        <v>0.35605000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,10 +924,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>319.3852</v>
+        <v>0.31938519999999998</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>642.38</v>
+        <v>0.64237999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>880.76</v>
+        <v>0.88075999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>923.05</v>
+        <v>0.92304999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>640.23</v>
+        <v>0.64022999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>529.64</v>
+        <v>0.52964</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>256.19</v>
+        <v>0.25618999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,7 +1004,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>312.93</v>
+        <v>0.31292999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>198.25</v>
+        <v>0.19825000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>220.84</v>
+        <v>0.22084000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,10 +1037,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>208.77</v>
+        <v>0.20877000000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>196.7</v>
+        <v>0.19669999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,7 +1062,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>246.35</v>
+        <v>0.24634999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>174.68</v>
+        <v>0.17468</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,16 +1084,16 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>170.49</v>
+        <v>0.17049</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39">
-        <v>289.99</v>
+        <v>0.28999000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,10 +1101,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40">
-        <v>289.99</v>
+        <v>0.28999000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="C41">
-        <v>149.79</v>
+        <v>0.14978999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>208.84</v>
+        <v>0.20884</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1094,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="C43">
-        <v>373.93</v>
+        <v>0.37392999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="C44">
-        <v>254.48</v>
+        <v>0.25447999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="C45">
-        <v>512.21</v>
+        <v>0.51221000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,7 +1170,7 @@
         <v>42</v>
       </c>
       <c r="C46">
-        <v>443.5</v>
+        <v>0.44350000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,7 +1181,7 @@
         <v>43</v>
       </c>
       <c r="C47">
-        <v>431.36</v>
+        <v>0.43136000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="C48">
-        <v>256.2</v>
+        <v>0.25619999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,7 +1201,7 @@
         <v>65</v>
       </c>
       <c r="C49">
-        <v>314.73666666666668</v>
+        <v>0.31473666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,10 +1209,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C50">
-        <v>314.73666666666668</v>
+        <v>0.31473666666666666</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="C51">
-        <v>234.65</v>
+        <v>0.23465</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,7 +1234,7 @@
         <v>46</v>
       </c>
       <c r="C52">
-        <v>418.36222222222221</v>
+        <v>0.41836222222222219</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="C53">
-        <v>329.25999999999988</v>
+        <v>0.32925999999999989</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1256,7 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>728.4133333333333</v>
+        <v>0.72841333333333325</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="C55">
-        <v>394.9</v>
+        <v>0.39489999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="C56">
-        <v>928.96999999999991</v>
+        <v>0.92896999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,7 +1289,7 @@
         <v>51</v>
       </c>
       <c r="C57">
-        <v>534.88</v>
+        <v>0.53488000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,7 +1300,7 @@
         <v>52</v>
       </c>
       <c r="C58">
-        <v>1362.96</v>
+        <v>1.3629599999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,7 +1311,7 @@
         <v>53</v>
       </c>
       <c r="C59">
-        <v>341.49</v>
+        <v>0.34149000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1322,7 @@
         <v>54</v>
       </c>
       <c r="C60">
-        <v>225.56</v>
+        <v>0.22556000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1333,7 @@
         <v>55</v>
       </c>
       <c r="C61">
-        <v>393.11999999999989</v>
+        <v>0.39311999999999991</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,7 +1344,7 @@
         <v>56</v>
       </c>
       <c r="C62">
-        <v>374.27</v>
+        <v>0.37426999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1312,7 +1355,7 @@
         <v>57</v>
       </c>
       <c r="C63">
-        <v>590</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1321,7 +1364,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>215.01</v>
+        <v>0.21500999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1332,7 +1375,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>215.01</v>
+        <v>0.21500999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,7 +1386,7 @@
         <v>58</v>
       </c>
       <c r="C66">
-        <v>197.84</v>
+        <v>0.19784000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1354,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="C67">
-        <v>113.89</v>
+        <v>0.11389000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1365,7 +1408,7 @@
         <v>60</v>
       </c>
       <c r="C68">
-        <v>147.27000000000001</v>
+        <v>0.14727000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="C69">
-        <v>172.21</v>
+        <v>0.17221</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1387,11 +1430,11 @@
         <v>62</v>
       </c>
       <c r="C70">
-        <v>149.3453846153846</v>
+        <v>0.1493453846153846</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C70"/>
+  <autoFilter ref="A1:C70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/output/product_key_cost.xlsx
+++ b/src/main/resources/output/product_key_cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YONGXIANG_PC\Desktop\Tableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YONGXIANG_PC\Desktop\FlexsimController\src\main\resources\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DB5EB-468A-4BFB-965E-148CEF8F3A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2347B22-5628-49FD-B11C-7EDA1E9F1371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>M9860B-VQFN-48-224</t>
   </si>
   <si>
-    <t xml:space="preserve"> M9820G-BGA-416-63</t>
-  </si>
-  <si>
     <t>M9820G-BGA-416-143</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>M4287D-LFBGA-292-110</t>
+  </si>
+  <si>
+    <t>M9820G-BGA-416-63</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>0.1166</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>0.1166</v>
@@ -927,7 +927,7 @@
         <v>0.31938519999999998</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>0.20877000000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>0.28999000000000003</v>
@@ -1101,7 +1101,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>0.28999000000000003</v>
@@ -1198,7 +1198,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>0.31473666666666666</v>
@@ -1209,7 +1209,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>0.31473666666666666</v>
@@ -1361,7 +1361,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <v>0.21500999999999998</v>
@@ -1372,7 +1372,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>0.21500999999999998</v>
